--- a/Ficha_1/Results.xlsx
+++ b/Ficha_1/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deiucpt-my.sharepoint.com/personal/mlmarques_student_dei_uc_pt/Documents/Universidade/Mestrado/1_ano/1_Semestre/IS/Fichas/Ficha_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4D361C20488DEA4E38A081AC186E6A5ADEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13508B3F-9EA5-46A3-A800-FA6C8FFAA660}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="11_AD4D361C20488DEA4E38A081AC186E6A5ADEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A5A739F-7DEC-47E1-B291-877C5A60BD29}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XML" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>significant averages and standard deviations</t>
   </si>
@@ -46,13 +46,328 @@
   </si>
   <si>
     <t>on</t>
+  </si>
+  <si>
+    <t>Owner1</t>
+  </si>
+  <si>
+    <t>Owner2</t>
+  </si>
+  <si>
+    <t>Owner3</t>
+  </si>
+  <si>
+    <t>Owner4</t>
+  </si>
+  <si>
+    <t>Owner5</t>
+  </si>
+  <si>
+    <t>Owner6</t>
+  </si>
+  <si>
+    <t>Owner7</t>
+  </si>
+  <si>
+    <t>Owner8</t>
+  </si>
+  <si>
+    <t>Owner9</t>
+  </si>
+  <si>
+    <t>Owner10</t>
+  </si>
+  <si>
+    <t>Owner11</t>
+  </si>
+  <si>
+    <t>Owner12</t>
+  </si>
+  <si>
+    <t>Owner13</t>
+  </si>
+  <si>
+    <t>Owner14</t>
+  </si>
+  <si>
+    <t>Owner15</t>
+  </si>
+  <si>
+    <t>Owner16</t>
+  </si>
+  <si>
+    <t>Owner17</t>
+  </si>
+  <si>
+    <t>Owner18</t>
+  </si>
+  <si>
+    <t>Owner19</t>
+  </si>
+  <si>
+    <t>Owner20</t>
+  </si>
+  <si>
+    <t>Owner21</t>
+  </si>
+  <si>
+    <t>Owner22</t>
+  </si>
+  <si>
+    <t>Owner23</t>
+  </si>
+  <si>
+    <t>Owner24</t>
+  </si>
+  <si>
+    <t>Owner25</t>
+  </si>
+  <si>
+    <t>Owner26</t>
+  </si>
+  <si>
+    <t>Owner27</t>
+  </si>
+  <si>
+    <t>Owner28</t>
+  </si>
+  <si>
+    <t>Owner29</t>
+  </si>
+  <si>
+    <t>Owner30</t>
+  </si>
+  <si>
+    <t>Owner31</t>
+  </si>
+  <si>
+    <t>Owner32</t>
+  </si>
+  <si>
+    <t>Owner33</t>
+  </si>
+  <si>
+    <t>Owner34</t>
+  </si>
+  <si>
+    <t>Owner35</t>
+  </si>
+  <si>
+    <t>Owner36</t>
+  </si>
+  <si>
+    <t>Owner37</t>
+  </si>
+  <si>
+    <t>Owner38</t>
+  </si>
+  <si>
+    <t>Owner39</t>
+  </si>
+  <si>
+    <t>Owner40</t>
+  </si>
+  <si>
+    <t>Owner41</t>
+  </si>
+  <si>
+    <t>Owner42</t>
+  </si>
+  <si>
+    <t>Owner43</t>
+  </si>
+  <si>
+    <t>Owner44</t>
+  </si>
+  <si>
+    <t>Owner45</t>
+  </si>
+  <si>
+    <t>Owner46</t>
+  </si>
+  <si>
+    <t>Owner47</t>
+  </si>
+  <si>
+    <t>Owner48</t>
+  </si>
+  <si>
+    <t>Owner49</t>
+  </si>
+  <si>
+    <t>Owner50</t>
+  </si>
+  <si>
+    <t>Owner51</t>
+  </si>
+  <si>
+    <t>Owner52</t>
+  </si>
+  <si>
+    <t>Owner53</t>
+  </si>
+  <si>
+    <t>Owner54</t>
+  </si>
+  <si>
+    <t>Owner55</t>
+  </si>
+  <si>
+    <t>Owner56</t>
+  </si>
+  <si>
+    <t>Owner57</t>
+  </si>
+  <si>
+    <t>Owner58</t>
+  </si>
+  <si>
+    <t>Owner59</t>
+  </si>
+  <si>
+    <t>Owner60</t>
+  </si>
+  <si>
+    <t>Owner61</t>
+  </si>
+  <si>
+    <t>Owner62</t>
+  </si>
+  <si>
+    <t>Owner63</t>
+  </si>
+  <si>
+    <t>Owner64</t>
+  </si>
+  <si>
+    <t>Owner65</t>
+  </si>
+  <si>
+    <t>Owner66</t>
+  </si>
+  <si>
+    <t>Owner67</t>
+  </si>
+  <si>
+    <t>Owner68</t>
+  </si>
+  <si>
+    <t>Owner69</t>
+  </si>
+  <si>
+    <t>Owner70</t>
+  </si>
+  <si>
+    <t>Owner71</t>
+  </si>
+  <si>
+    <t>Owner72</t>
+  </si>
+  <si>
+    <t>Owner73</t>
+  </si>
+  <si>
+    <t>Owner74</t>
+  </si>
+  <si>
+    <t>Owner75</t>
+  </si>
+  <si>
+    <t>Owner76</t>
+  </si>
+  <si>
+    <t>Owner77</t>
+  </si>
+  <si>
+    <t>Owner78</t>
+  </si>
+  <si>
+    <t>Owner79</t>
+  </si>
+  <si>
+    <t>Owner80</t>
+  </si>
+  <si>
+    <t>Owner81</t>
+  </si>
+  <si>
+    <t>Owner82</t>
+  </si>
+  <si>
+    <t>Owner83</t>
+  </si>
+  <si>
+    <t>Owner84</t>
+  </si>
+  <si>
+    <t>Owner85</t>
+  </si>
+  <si>
+    <t>Owner86</t>
+  </si>
+  <si>
+    <t>Owner87</t>
+  </si>
+  <si>
+    <t>Owner88</t>
+  </si>
+  <si>
+    <t>Owner89</t>
+  </si>
+  <si>
+    <t>Owner90</t>
+  </si>
+  <si>
+    <t>Owner91</t>
+  </si>
+  <si>
+    <t>Owner92</t>
+  </si>
+  <si>
+    <t>Owner93</t>
+  </si>
+  <si>
+    <t>Owner94</t>
+  </si>
+  <si>
+    <t>Owner95</t>
+  </si>
+  <si>
+    <t>Owner96</t>
+  </si>
+  <si>
+    <t>Owner97</t>
+  </si>
+  <si>
+    <t>Owner98</t>
+  </si>
+  <si>
+    <t>Owner99</t>
+  </si>
+  <si>
+    <t>Owner100</t>
+  </si>
+  <si>
+    <t>Owners</t>
+  </si>
+  <si>
+    <t>total pets</t>
+  </si>
+  <si>
+    <t>serialization time</t>
+  </si>
+  <si>
+    <t>deserialization time</t>
+  </si>
+  <si>
+    <t>file size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +380,12 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,50 +691,1806 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="V5:V13"/>
+  <dimension ref="A2:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12:V13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="22:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V5" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>148</v>
+      </c>
+      <c r="D3">
+        <v>232741601</v>
+      </c>
+      <c r="E3">
+        <v>43807100</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>346</v>
+      </c>
+      <c r="D4">
+        <v>28805201</v>
+      </c>
+      <c r="E4">
+        <v>17173900</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>468</v>
+      </c>
+      <c r="D5">
+        <v>10286799</v>
+      </c>
+      <c r="E5">
+        <v>3786100</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="22:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V8" s="1" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>597</v>
+      </c>
+      <c r="D6">
+        <v>11773200</v>
+      </c>
+      <c r="E6">
+        <v>3714200</v>
+      </c>
+      <c r="F6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>977</v>
+      </c>
+      <c r="D7">
+        <v>10794499</v>
+      </c>
+      <c r="E7">
+        <v>6466200</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>1073</v>
+      </c>
+      <c r="D8">
+        <v>7011600</v>
+      </c>
+      <c r="E8">
+        <v>3432200</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="22:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V9" s="1" t="s">
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>1282</v>
+      </c>
+      <c r="D9">
+        <v>13803000</v>
+      </c>
+      <c r="E9">
+        <v>6341799</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="22:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V10" s="1" t="s">
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1310</v>
+      </c>
+      <c r="D10">
+        <v>5269500</v>
+      </c>
+      <c r="E10">
+        <v>1702501</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="22:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V11" s="1" t="s">
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>1355</v>
+      </c>
+      <c r="D11">
+        <v>5823801</v>
+      </c>
+      <c r="E11">
+        <v>1665799</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="22:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V12" s="1" t="s">
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1381</v>
+      </c>
+      <c r="D12">
+        <v>9512200</v>
+      </c>
+      <c r="E12">
+        <v>1244300</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="22:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V13" s="1" t="s">
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>1429</v>
+      </c>
+      <c r="D13">
+        <v>4878700</v>
+      </c>
+      <c r="E13">
+        <v>1489901</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>1477</v>
+      </c>
+      <c r="D14">
+        <v>5051700</v>
+      </c>
+      <c r="E14">
+        <v>1183301</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>1617</v>
+      </c>
+      <c r="D15">
+        <v>8213301</v>
+      </c>
+      <c r="E15">
+        <v>1763899</v>
+      </c>
+      <c r="F15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>1746</v>
+      </c>
+      <c r="D16">
+        <v>5039500</v>
+      </c>
+      <c r="E16">
+        <v>1818299</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>1934</v>
+      </c>
+      <c r="D17">
+        <v>6712601</v>
+      </c>
+      <c r="E17">
+        <v>2491900</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>2322</v>
+      </c>
+      <c r="D18">
+        <v>46387500</v>
+      </c>
+      <c r="E18">
+        <v>4265200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>2377</v>
+      </c>
+      <c r="D19">
+        <v>3987000</v>
+      </c>
+      <c r="E19">
+        <v>1953899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>2451</v>
+      </c>
+      <c r="D20">
+        <v>7235799</v>
+      </c>
+      <c r="E20">
+        <v>1112800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>2551</v>
+      </c>
+      <c r="D21">
+        <v>4534100</v>
+      </c>
+      <c r="E21">
+        <v>1300899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>2578</v>
+      </c>
+      <c r="D22">
+        <v>4392899</v>
+      </c>
+      <c r="E22">
+        <v>1462799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <v>2713</v>
+      </c>
+      <c r="D23">
+        <v>4868999</v>
+      </c>
+      <c r="E23">
+        <v>2578301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2719</v>
+      </c>
+      <c r="D24">
+        <v>4871001</v>
+      </c>
+      <c r="E24">
+        <v>831400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>2788</v>
+      </c>
+      <c r="D25">
+        <v>5988000</v>
+      </c>
+      <c r="E25">
+        <v>897900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>2827</v>
+      </c>
+      <c r="D26">
+        <v>3686200</v>
+      </c>
+      <c r="E26">
+        <v>1742400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>2925</v>
+      </c>
+      <c r="D27">
+        <v>4128700</v>
+      </c>
+      <c r="E27">
+        <v>2482700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>3025</v>
+      </c>
+      <c r="D28">
+        <v>3993500</v>
+      </c>
+      <c r="E28">
+        <v>1724501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>3140</v>
+      </c>
+      <c r="D29">
+        <v>3785300</v>
+      </c>
+      <c r="E29">
+        <v>1576300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>59</v>
+      </c>
+      <c r="C30">
+        <v>3402</v>
+      </c>
+      <c r="D30">
+        <v>5071001</v>
+      </c>
+      <c r="E30">
+        <v>2985899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>67</v>
+      </c>
+      <c r="C31">
+        <v>3647</v>
+      </c>
+      <c r="D31">
+        <v>3912199</v>
+      </c>
+      <c r="E31">
+        <v>1852800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>3746</v>
+      </c>
+      <c r="D32">
+        <v>6487001</v>
+      </c>
+      <c r="E32">
+        <v>1228401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>3830</v>
+      </c>
+      <c r="D33">
+        <v>6907601</v>
+      </c>
+      <c r="E33">
+        <v>1065200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>3857</v>
+      </c>
+      <c r="D34">
+        <v>12161800</v>
+      </c>
+      <c r="E34">
+        <v>1222900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>3880</v>
+      </c>
+      <c r="D35">
+        <v>4083099</v>
+      </c>
+      <c r="E35">
+        <v>1135100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>3917</v>
+      </c>
+      <c r="D36">
+        <v>6203600</v>
+      </c>
+      <c r="E36">
+        <v>987000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>89</v>
+      </c>
+      <c r="C37">
+        <v>4006</v>
+      </c>
+      <c r="D37">
+        <v>4870400</v>
+      </c>
+      <c r="E37">
+        <v>2185100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>4109</v>
+      </c>
+      <c r="D38">
+        <v>3884700</v>
+      </c>
+      <c r="E38">
+        <v>2245201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>4133</v>
+      </c>
+      <c r="D39">
+        <v>3824100</v>
+      </c>
+      <c r="E39">
+        <v>709500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>86</v>
+      </c>
+      <c r="C40">
+        <v>4442</v>
+      </c>
+      <c r="D40">
+        <v>4463599</v>
+      </c>
+      <c r="E40">
+        <v>4508900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>4459</v>
+      </c>
+      <c r="D41">
+        <v>3642800</v>
+      </c>
+      <c r="E41">
+        <v>954600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>86</v>
+      </c>
+      <c r="C42">
+        <v>4590</v>
+      </c>
+      <c r="D42">
+        <v>5013499</v>
+      </c>
+      <c r="E42">
+        <v>2598300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>89</v>
+      </c>
+      <c r="C43">
+        <v>4679</v>
+      </c>
+      <c r="D43">
+        <v>5414400</v>
+      </c>
+      <c r="E43">
+        <v>1229401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <v>5060</v>
+      </c>
+      <c r="D44">
+        <v>15331800</v>
+      </c>
+      <c r="E44">
+        <v>2961499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>73</v>
+      </c>
+      <c r="C45">
+        <v>5337</v>
+      </c>
+      <c r="D45">
+        <v>5432001</v>
+      </c>
+      <c r="E45">
+        <v>3132300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>5438</v>
+      </c>
+      <c r="D46">
+        <v>7915500</v>
+      </c>
+      <c r="E46">
+        <v>1247101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>86</v>
+      </c>
+      <c r="C47">
+        <v>5699</v>
+      </c>
+      <c r="D47">
+        <v>4999900</v>
+      </c>
+      <c r="E47">
+        <v>3029599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>69</v>
+      </c>
+      <c r="C48">
+        <v>5797</v>
+      </c>
+      <c r="D48">
+        <v>4139801</v>
+      </c>
+      <c r="E48">
+        <v>1607200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>5828</v>
+      </c>
+      <c r="D49">
+        <v>3564400</v>
+      </c>
+      <c r="E49">
+        <v>1127300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>5854</v>
+      </c>
+      <c r="D50">
+        <v>5176600</v>
+      </c>
+      <c r="E50">
+        <v>1360200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>88</v>
+      </c>
+      <c r="C51">
+        <v>6210</v>
+      </c>
+      <c r="D51">
+        <v>4830900</v>
+      </c>
+      <c r="E51">
+        <v>3204900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>32</v>
+      </c>
+      <c r="C52">
+        <v>6242</v>
+      </c>
+      <c r="D52">
+        <v>7499200</v>
+      </c>
+      <c r="E52">
+        <v>1307000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>6346</v>
+      </c>
+      <c r="D53">
+        <v>3413900</v>
+      </c>
+      <c r="E53">
+        <v>1354701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>92</v>
+      </c>
+      <c r="C54">
+        <v>6587</v>
+      </c>
+      <c r="D54">
+        <v>6313599</v>
+      </c>
+      <c r="E54">
+        <v>5458599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>91</v>
+      </c>
+      <c r="C55">
+        <v>6968</v>
+      </c>
+      <c r="D55">
+        <v>5907599</v>
+      </c>
+      <c r="E55">
+        <v>3757200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>7207</v>
+      </c>
+      <c r="D56">
+        <v>4411100</v>
+      </c>
+      <c r="E56">
+        <v>2282801</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <v>7244</v>
+      </c>
+      <c r="D57">
+        <v>3771999</v>
+      </c>
+      <c r="E57">
+        <v>1237099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>7269</v>
+      </c>
+      <c r="D58">
+        <v>6040900</v>
+      </c>
+      <c r="E58">
+        <v>1859100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>7603</v>
+      </c>
+      <c r="D59">
+        <v>4096901</v>
+      </c>
+      <c r="E59">
+        <v>4132600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>78</v>
+      </c>
+      <c r="C60">
+        <v>7906</v>
+      </c>
+      <c r="D60">
+        <v>5126499</v>
+      </c>
+      <c r="E60">
+        <v>2932299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>7976</v>
+      </c>
+      <c r="D61">
+        <v>3647600</v>
+      </c>
+      <c r="E61">
+        <v>1608200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>58</v>
+      </c>
+      <c r="C62">
+        <v>8217</v>
+      </c>
+      <c r="D62">
+        <v>4585800</v>
+      </c>
+      <c r="E62">
+        <v>1777601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>73</v>
+      </c>
+      <c r="C63">
+        <v>8325</v>
+      </c>
+      <c r="D63">
+        <v>3721700</v>
+      </c>
+      <c r="E63">
+        <v>1764100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>55</v>
+      </c>
+      <c r="C64">
+        <v>8534</v>
+      </c>
+      <c r="D64">
+        <v>4406199</v>
+      </c>
+      <c r="E64">
+        <v>2654500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>8560</v>
+      </c>
+      <c r="D65">
+        <v>3361800</v>
+      </c>
+      <c r="E65">
+        <v>970300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>24</v>
+      </c>
+      <c r="C66">
+        <v>8607</v>
+      </c>
+      <c r="D66">
+        <v>3792500</v>
+      </c>
+      <c r="E66">
+        <v>1797400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>27</v>
+      </c>
+      <c r="C67">
+        <v>8634</v>
+      </c>
+      <c r="D67">
+        <v>3100901</v>
+      </c>
+      <c r="E67">
+        <v>1127800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>55</v>
+      </c>
+      <c r="C68">
+        <v>8796</v>
+      </c>
+      <c r="D68">
+        <v>3655501</v>
+      </c>
+      <c r="E68">
+        <v>2329300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>8801</v>
+      </c>
+      <c r="D69">
+        <v>4151300</v>
+      </c>
+      <c r="E69">
+        <v>657700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>52</v>
+      </c>
+      <c r="C70">
+        <v>8902</v>
+      </c>
+      <c r="D70">
+        <v>3997301</v>
+      </c>
+      <c r="E70">
+        <v>2092400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>63</v>
+      </c>
+      <c r="C71">
+        <v>9164</v>
+      </c>
+      <c r="D71">
+        <v>5372900</v>
+      </c>
+      <c r="E71">
+        <v>2530100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>53</v>
+      </c>
+      <c r="C72">
+        <v>9361</v>
+      </c>
+      <c r="D72">
+        <v>3390400</v>
+      </c>
+      <c r="E72">
+        <v>2282800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>81</v>
+      </c>
+      <c r="C73">
+        <v>9483</v>
+      </c>
+      <c r="D73">
+        <v>3338500</v>
+      </c>
+      <c r="E73">
+        <v>1105200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>29</v>
+      </c>
+      <c r="C74">
+        <v>9512</v>
+      </c>
+      <c r="D74">
+        <v>5703000</v>
+      </c>
+      <c r="E74">
+        <v>1117199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>34</v>
+      </c>
+      <c r="C75">
+        <v>9660</v>
+      </c>
+      <c r="D75">
+        <v>3597201</v>
+      </c>
+      <c r="E75">
+        <v>1217100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>9701</v>
+      </c>
+      <c r="D76">
+        <v>4639400</v>
+      </c>
+      <c r="E76">
+        <v>1303600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>97</v>
+      </c>
+      <c r="C77">
+        <v>9920</v>
+      </c>
+      <c r="D77">
+        <v>3639799</v>
+      </c>
+      <c r="E77">
+        <v>2712801</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>9981</v>
+      </c>
+      <c r="D78">
+        <v>3254099</v>
+      </c>
+      <c r="E78">
+        <v>2299500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>31</v>
+      </c>
+      <c r="C79">
+        <v>1002</v>
+      </c>
+      <c r="D79">
+        <v>2646800</v>
+      </c>
+      <c r="E79">
+        <v>947499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>1017</v>
+      </c>
+      <c r="D80">
+        <v>3366100</v>
+      </c>
+      <c r="E80">
+        <v>1446500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>66</v>
+      </c>
+      <c r="C81">
+        <v>1048</v>
+      </c>
+      <c r="D81">
+        <v>4816300</v>
+      </c>
+      <c r="E81">
+        <v>1622200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>40</v>
+      </c>
+      <c r="C82">
+        <v>1053</v>
+      </c>
+      <c r="D82">
+        <v>3420501</v>
+      </c>
+      <c r="E82">
+        <v>3117899</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <v>1056</v>
+      </c>
+      <c r="D83">
+        <v>3595101</v>
+      </c>
+      <c r="E83">
+        <v>1056400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>33</v>
+      </c>
+      <c r="C84">
+        <v>1059</v>
+      </c>
+      <c r="D84">
+        <v>3573401</v>
+      </c>
+      <c r="E84">
+        <v>636800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>78</v>
+      </c>
+      <c r="C85">
+        <v>1067</v>
+      </c>
+      <c r="D85">
+        <v>4318100</v>
+      </c>
+      <c r="E85">
+        <v>1457101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>27</v>
+      </c>
+      <c r="C86">
+        <v>1079</v>
+      </c>
+      <c r="D86">
+        <v>5878999</v>
+      </c>
+      <c r="E86">
+        <v>1267800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87">
+        <v>1088</v>
+      </c>
+      <c r="D87">
+        <v>4983199</v>
+      </c>
+      <c r="E87">
+        <v>1053900</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>1093</v>
+      </c>
+      <c r="D88">
+        <v>4523500</v>
+      </c>
+      <c r="E88">
+        <v>654099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>1096</v>
+      </c>
+      <c r="D89">
+        <v>5457400</v>
+      </c>
+      <c r="E89">
+        <v>637199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90">
+        <v>70</v>
+      </c>
+      <c r="C90">
+        <v>1114</v>
+      </c>
+      <c r="D90">
+        <v>4434000</v>
+      </c>
+      <c r="E90">
+        <v>1292999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91">
+        <v>39</v>
+      </c>
+      <c r="C91">
+        <v>1122</v>
+      </c>
+      <c r="D91">
+        <v>3762399</v>
+      </c>
+      <c r="E91">
+        <v>808900</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>75</v>
+      </c>
+      <c r="C92">
+        <v>1133</v>
+      </c>
+      <c r="D92">
+        <v>4045900</v>
+      </c>
+      <c r="E92">
+        <v>996799</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>51</v>
+      </c>
+      <c r="C93">
+        <v>1141</v>
+      </c>
+      <c r="D93">
+        <v>3410099</v>
+      </c>
+      <c r="E93">
+        <v>1109099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94">
+        <v>99</v>
+      </c>
+      <c r="C94">
+        <v>1164</v>
+      </c>
+      <c r="D94">
+        <v>3968101</v>
+      </c>
+      <c r="E94">
+        <v>1835800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95">
+        <v>42</v>
+      </c>
+      <c r="C95">
+        <v>1172</v>
+      </c>
+      <c r="D95">
+        <v>4074400</v>
+      </c>
+      <c r="E95">
+        <v>805900</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96">
+        <v>90</v>
+      </c>
+      <c r="C96">
+        <v>1190</v>
+      </c>
+      <c r="D96">
+        <v>11871800</v>
+      </c>
+      <c r="E96">
+        <v>1206900</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97">
+        <v>34</v>
+      </c>
+      <c r="C97">
+        <v>1205</v>
+      </c>
+      <c r="D97">
+        <v>5932201</v>
+      </c>
+      <c r="E97">
+        <v>945600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98">
+        <v>90</v>
+      </c>
+      <c r="C98">
+        <v>1224</v>
+      </c>
+      <c r="D98">
+        <v>6892599</v>
+      </c>
+      <c r="E98">
+        <v>1596200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99">
+        <v>87</v>
+      </c>
+      <c r="C99">
+        <v>1257</v>
+      </c>
+      <c r="D99">
+        <v>4451699</v>
+      </c>
+      <c r="E99">
+        <v>1723000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100">
+        <v>48</v>
+      </c>
+      <c r="C100">
+        <v>1275</v>
+      </c>
+      <c r="D100">
+        <v>4677899</v>
+      </c>
+      <c r="E100">
+        <v>1093200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101">
+        <v>96</v>
+      </c>
+      <c r="C101">
+        <v>1284</v>
+      </c>
+      <c r="D101">
+        <v>4383799</v>
+      </c>
+      <c r="E101">
+        <v>1093001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102">
+        <v>80</v>
+      </c>
+      <c r="C102">
+        <v>1309</v>
+      </c>
+      <c r="D102">
+        <v>4235200</v>
+      </c>
+      <c r="E102">
+        <v>1810900</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
